--- a/experiment(capacitor in an AC circuit).xlsx
+++ b/experiment(capacitor in an AC circuit).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -165,7 +165,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Current by Frequency</a:t>
+              <a:t>Current over Frequency</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -241,7 +241,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="2.7000000000000007E-2"/>
+            <c:backward val="93"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -277,7 +277,46 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$J$25:$J$34</c:f>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$5:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -313,50 +352,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$K$25:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-686B-44BF-9647-94328440C9F4}"/>
+              <c16:uniqueId val="{00000000-DD71-4BDD-8994-0F959972CBA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -368,14 +368,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262630712"/>
-        <c:axId val="262629400"/>
+        <c:axId val="247281552"/>
+        <c:axId val="247282536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262630712"/>
+        <c:axId val="247281552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -428,7 +427,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Current (A)</a:t>
+                  <a:t>Frequency (Hz)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -499,12 +498,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262629400"/>
+        <c:crossAx val="247282536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262629400"/>
+        <c:axId val="247282536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +559,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Frequency (Hz)</a:t>
+                  <a:t>Current (A)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -630,7 +630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262630712"/>
+        <c:crossAx val="247281552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1246,23 +1246,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>525782</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>376893</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165296</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30ED0390-3892-4AF3-97C3-193EE0069C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4CC2386-533F-4335-9E27-4B2F9FF99E7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98CA700-5E3B-4D32-9FFA-D930D423034D}">
   <dimension ref="A3:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,12 +1596,12 @@
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="H3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1000</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>5.0144805070167875</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>900</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>5.0181133636128719</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>800</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5.0229567794189371</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>700</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>5.0288220049344545</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>600</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>5.0394001600725913</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>500</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>5.0690320343265229</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>400</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>5.0882213434572838</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>300</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>5.1538820320220751</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>200</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>5.344154354063603</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>100</v>
       </c>
@@ -2172,32 +2172,34 @@
         <v>6.2223324505227566</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
-        <f t="array" ref="B16:C17">LINEST(B5:B14,K5:K14,TRUE,TRUE)</f>
-        <v>3733.3100204440184</v>
-      </c>
-      <c r="C16">
-        <v>7.5052543092386941</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G16">
+        <f t="array" ref="G16:H17">LINEST(K5:K14,B5:B14,TRUE,TRUE)</f>
+        <v>2.6737454545454548E-4</v>
+      </c>
+      <c r="H16">
+        <v>-1.7439999999999956E-3</v>
+      </c>
+      <c r="I16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <v>56.173675313844747</v>
-      </c>
-      <c r="C17">
-        <v>9.2343976846657831</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="G17">
+        <v>4.0230816142518348E-6</v>
+      </c>
+      <c r="H17">
+        <v>2.4962564942025674E-3</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/experiment(capacitor in an AC circuit).xlsx
+++ b/experiment(capacitor in an AC circuit).xlsx
@@ -24,21 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Frequency (Hz)</t>
-  </si>
-  <si>
-    <t>1/f</t>
   </si>
   <si>
     <t>avg</t>
   </si>
   <si>
     <t>Current (A)</t>
-  </si>
-  <si>
-    <t>Capacitance (uF)</t>
   </si>
   <si>
     <t>Voltage (V)</t>
@@ -316,7 +310,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$K$14</c:f>
+              <c:f>Sheet1!$I$5:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -336,7 +330,7 @@
                   <c:v>0.159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12232000000000001</c:v>
+                  <c:v>0.1328</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.10600000000000001</c:v>
@@ -1246,16 +1240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>525782</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163832</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>472442</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34292</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>376893</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>165296</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>483573</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>35756</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1580,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98CA700-5E3B-4D32-9FFA-D930D423034D}">
-  <dimension ref="A3:P34"/>
+  <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1592,47 +1586,48 @@
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="8.109375" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
+      <c r="J4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>6</v>
       </c>
       <c r="M4" t="s">
@@ -1641,29 +1636,22 @@
       <c r="N4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1000</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C14" si="0">1/B5</f>
-        <v>1E-3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="F5">
-        <v>0.26700000000000002</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="G5">
         <v>0.26800000000000002</v>
@@ -1672,154 +1660,133 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="I5">
-        <v>0.26800000000000002</v>
+        <f t="shared" ref="I5:I14" si="0">AVERAGE(D5:H5)</f>
+        <v>0.26780000000000004</v>
       </c>
       <c r="J5">
-        <v>0.26800000000000002</v>
+        <f t="shared" ref="J5:J14" si="1">(I5/100) * 5</f>
+        <v>1.3390000000000001E-2</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K14" si="1">AVERAGE(F5:J5)</f>
-        <v>0.26780000000000004</v>
+        <v>1E-3</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L14" si="2">(K5/100) * 5</f>
-        <v>1.3390000000000001E-2</v>
+        <f>(E5-D5)/5</f>
+        <v>2.0000000000000017E-4</v>
       </c>
       <c r="M5">
-        <v>1E-3</v>
+        <f t="shared" ref="M5:M14" si="2">(((J5^2)+(K5^2)+(L5^2))^0.5)</f>
+        <v>1.3428778797790961E-2</v>
       </c>
       <c r="N5">
-        <f>(G5-F5)/5</f>
-        <v>2.0000000000000017E-4</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O14" si="3">(((L5^2)+(M5^2)+(N5^2))^0.5)</f>
-        <v>1.3428778797790961E-2</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P14" si="4">(O5/K5)*100</f>
+        <f t="shared" ref="N5:N14" si="3">(M5/I5)*100</f>
         <v>5.0144805070167875</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>900</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.24</v>
+      </c>
+      <c r="F6">
+        <v>0.24</v>
+      </c>
+      <c r="G6">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>1.1111111111111111E-3</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="G6">
-        <v>0.24</v>
-      </c>
-      <c r="H6">
-        <v>0.24</v>
-      </c>
-      <c r="I6">
-        <v>0.23899999999999999</v>
+        <v>0.2394</v>
       </c>
       <c r="J6">
-        <v>0.23899999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.197E-2</v>
       </c>
       <c r="K6">
-        <f t="shared" si="1"/>
-        <v>0.2394</v>
+        <v>1E-3</v>
       </c>
       <c r="L6">
+        <f>(F6-G6)/5</f>
+        <v>2.0000000000000017E-4</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="2"/>
-        <v>1.197E-2</v>
-      </c>
-      <c r="M6">
-        <v>1E-3</v>
+        <v>1.2013363392489216E-2</v>
       </c>
       <c r="N6">
-        <f>(H6-I6)/5</f>
-        <v>2.0000000000000017E-4</v>
-      </c>
-      <c r="O6">
         <f t="shared" si="3"/>
-        <v>1.2013363392489216E-2</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="4"/>
         <v>5.0181133636128719</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>800</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1.25E-3</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="F7">
-        <v>0.21199999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="G7">
         <v>0.21299999999999999</v>
       </c>
       <c r="H7">
-        <v>0.21299999999999999</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="I7">
-        <v>0.21299999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.21259999999999998</v>
       </c>
       <c r="J7">
-        <v>0.21199999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.0629999999999999E-2</v>
       </c>
       <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0.21259999999999998</v>
+        <v>1E-3</v>
       </c>
       <c r="L7">
+        <f>(G7-H7)/5</f>
+        <v>2.0000000000000017E-4</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="2"/>
-        <v>1.0629999999999999E-2</v>
-      </c>
-      <c r="M7">
-        <v>1E-3</v>
+        <v>1.0678806113044659E-2</v>
       </c>
       <c r="N7">
-        <f>(I7-J7)/5</f>
-        <v>2.0000000000000017E-4</v>
-      </c>
-      <c r="O7">
         <f t="shared" si="3"/>
-        <v>1.0678806113044659E-2</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="4"/>
         <v>5.0229567794189371</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>700</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.4285714285714286E-3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>0.186</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0.186</v>
       </c>
       <c r="F8">
         <v>0.186</v>
@@ -1831,47 +1798,40 @@
         <v>0.186</v>
       </c>
       <c r="I8">
+        <f t="shared" si="0"/>
         <v>0.186</v>
       </c>
       <c r="J8">
-        <v>0.186</v>
+        <f t="shared" si="1"/>
+        <v>9.2999999999999992E-3</v>
       </c>
       <c r="K8">
-        <f t="shared" si="1"/>
-        <v>0.186</v>
+        <v>1E-3</v>
       </c>
       <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="2"/>
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="M8">
-        <v>1E-3</v>
+        <v>9.3536089291780845E-3</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
         <f t="shared" si="3"/>
-        <v>9.3536089291780845E-3</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="4"/>
         <v>5.0288220049344545</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>600</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.6666666666666668E-3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>0.159</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0.159</v>
       </c>
       <c r="F9">
         <v>0.159</v>
@@ -1883,50 +1843,43 @@
         <v>0.159</v>
       </c>
       <c r="I9">
+        <f t="shared" si="0"/>
         <v>0.159</v>
       </c>
       <c r="J9">
-        <v>0.159</v>
+        <f t="shared" si="1"/>
+        <v>7.9500000000000005E-3</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>0.159</v>
+        <v>1E-3</v>
       </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="2"/>
-        <v>7.9500000000000005E-3</v>
-      </c>
-      <c r="M9">
-        <v>1E-3</v>
+        <v>8.0126462545154209E-3</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
         <f t="shared" si="3"/>
-        <v>8.0126462545154209E-3</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="4"/>
         <v>5.0394001600725913</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>500</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2E-3</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F10">
-        <v>0.13200000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="G10">
         <v>0.13300000000000001</v>
@@ -1935,48 +1888,41 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="I10">
-        <v>1.33</v>
+        <f>SUM(D10:H10)/5</f>
+        <v>0.1328</v>
       </c>
       <c r="J10">
-        <v>1.33</v>
+        <f t="shared" si="1"/>
+        <v>6.6400000000000001E-3</v>
       </c>
       <c r="K10">
-        <f>AVERAGE(F10:J10)/5</f>
-        <v>0.12232000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="L10">
+        <f>(F10-D10)/5</f>
+        <v>2.0000000000000017E-4</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="2"/>
-        <v>6.1159999999999999E-3</v>
-      </c>
-      <c r="M10">
-        <v>1E-3</v>
+        <v>6.7178568010936345E-3</v>
       </c>
       <c r="N10">
-        <f>(H10-F10)/5</f>
-        <v>2.0000000000000017E-4</v>
-      </c>
-      <c r="O10">
         <f t="shared" si="3"/>
-        <v>6.2004399843882041E-3</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="4"/>
-        <v>5.0690320343265229</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+        <v>5.0586271092572552</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>400</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>2.5000000000000001E-3</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>0.106</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>0.106</v>
       </c>
       <c r="F11">
         <v>0.106</v>
@@ -1988,47 +1934,40 @@
         <v>0.106</v>
       </c>
       <c r="I11">
-        <v>0.106</v>
+        <f t="shared" si="0"/>
+        <v>0.10600000000000001</v>
       </c>
       <c r="J11">
-        <v>0.106</v>
+        <f t="shared" si="1"/>
+        <v>5.3000000000000009E-3</v>
       </c>
       <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0.10600000000000001</v>
+        <v>1E-3</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="2"/>
-        <v>5.3000000000000009E-3</v>
-      </c>
-      <c r="M11">
-        <v>1E-3</v>
+        <v>5.3935146240647212E-3</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
         <f t="shared" si="3"/>
-        <v>5.3935146240647212E-3</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="4"/>
         <v>5.0882213434572838</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>300</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333335E-3</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>0.08</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>0.08</v>
       </c>
       <c r="F12">
         <v>0.08</v>
@@ -2040,47 +1979,40 @@
         <v>0.08</v>
       </c>
       <c r="I12">
+        <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
       <c r="J12">
-        <v>0.08</v>
+        <f t="shared" si="1"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
-        <v>0.08</v>
+        <v>1E-3</v>
       </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="2"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M12">
-        <v>1E-3</v>
+        <v>4.1231056256176603E-3</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
         <f t="shared" si="3"/>
-        <v>4.1231056256176603E-3</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
         <v>5.1538820320220751</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>200</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000001E-3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="F13">
         <v>5.2999999999999999E-2</v>
@@ -2092,47 +2024,40 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="I13">
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.3000000000000005E-2</v>
       </c>
       <c r="J13">
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.6500000000000004E-3</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>5.3000000000000005E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="2"/>
-        <v>2.6500000000000004E-3</v>
-      </c>
-      <c r="M13">
-        <v>1E-3</v>
+        <v>2.83240180765371E-3</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
         <f t="shared" si="3"/>
-        <v>2.83240180765371E-3</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="4"/>
         <v>5.344154354063603</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>100</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F14">
         <v>2.7E-2</v>
@@ -2144,63 +2069,63 @@
         <v>2.7E-2</v>
       </c>
       <c r="I14">
-        <v>2.7E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.7000000000000003E-2</v>
       </c>
       <c r="J14">
-        <v>2.7E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3500000000000003E-3</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
-        <v>2.7000000000000003E-2</v>
+        <v>1E-3</v>
       </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="2"/>
-        <v>1.3500000000000003E-3</v>
-      </c>
-      <c r="M14">
-        <v>1E-3</v>
+        <v>1.6800297616411445E-3</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
         <f t="shared" si="3"/>
-        <v>1.6800297616411445E-3</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="4"/>
         <v>6.2223324505227566</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <f t="array" ref="G16:H17">LINEST(K5:K14,B5:B14,TRUE,TRUE)</f>
-        <v>2.6737454545454548E-4</v>
+        <f t="array" ref="G16:H17">LINEST(I5:I14,B5:B14,TRUE,TRUE)</f>
+        <v>2.6673939393939401E-4</v>
       </c>
       <c r="H16">
-        <v>-1.7439999999999956E-3</v>
+        <v>-3.4666666666668955E-4</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17">
-        <v>4.0230816142518348E-6</v>
+        <v>7.4192314567369024E-7</v>
       </c>
       <c r="H17">
-        <v>2.4962564942025674E-3</v>
+        <v>4.6035120541087143E-4</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f>(G17/G16)*100</f>
+        <v>0.27814532181259399</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">

--- a/experiment(capacitor in an AC circuit).xlsx
+++ b/experiment(capacitor in an AC circuit).xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\AH-Physics-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4FDDF2-6D7F-4923-82B7-E326F8857608}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{464AF4D9-A49C-411B-9670-FF1AE77E3227}"/>
   </bookViews>
@@ -210,12 +211,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -230,44 +229,14 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:backward val="93"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:backward val="98"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1240,16 +1209,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>472442</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>34292</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>483573</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>35756</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28136</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1576,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98CA700-5E3B-4D32-9FFA-D930D423034D}">
   <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,9 +1555,10 @@
     <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="8.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
